--- a/categories.xlsx
+++ b/categories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ouenn\OneDrive\Bureau\Super utilisateur\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ouenn\OneDrive\Bureau\images-master\images-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DEADC4-98D3-4055-9E5B-58DFD5199115}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D74AA6-0A8B-49DD-B32B-96D4DD93407C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{729C9432-45AD-42D0-9F8A-C95E5D5FCB78}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{729C9432-45AD-42D0-9F8A-C95E5D5FCB78}"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="1" r:id="rId1"/>
@@ -45,31 +45,31 @@
     <t>Vêtement</t>
   </si>
   <si>
-    <t>https://github.com/KamData/images/blob/master/sportsCategories/vetements.png?raw=true</t>
-  </si>
-  <si>
     <t>Vélo</t>
   </si>
   <si>
-    <t>https://github.com/KamData/images/blob/master/sportsCategories/bicycle.png?raw=true</t>
-  </si>
-  <si>
     <t>Ski</t>
   </si>
   <si>
-    <t>https://github.com/KamData/images/blob/master/sportsCategories/ski.png?raw=true</t>
-  </si>
-  <si>
     <t>Golf</t>
   </si>
   <si>
-    <t>https://github.com/KamData/images/blob/master/sportsCategories/golf.png?raw=true</t>
-  </si>
-  <si>
     <t>Camping</t>
   </si>
   <si>
-    <t>https://github.com/KamData/images/blob/master/sportsCategories/camping.png?raw=true</t>
+    <t>https://github.com/Kabesa/images/blob/master/sportsCategories/vetements.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/Kabesa/images/blob/master/sportsCategories/bicycle.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/Kabesa/images/blob/master/sportsCategories/ski.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/Kabesa/images/blob/master/sportsCategories/golf.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/Kabesa/images/blob/master/sportsCategories/camping.png?raw=true</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -467,10 +467,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -478,10 +478,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -489,10 +489,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -500,7 +500,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -508,11 +508,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{53CAC6D1-A99A-41FE-B2E4-430EB0B9EC4D}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{39766DA8-AFF1-4BC1-8F71-EE864B6F62A7}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{4430581D-6D82-43D5-8A22-173D1437D6BB}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{AA9D2E9F-957F-4A18-BCA1-7E34A9DE8F80}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{98898E7A-3EFA-45D1-B15F-6A9F07945D60}"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://github.com/KamData/images/blob/master/sportsCategories/bicycle.png?raw=true" xr:uid="{53CAC6D1-A99A-41FE-B2E4-430EB0B9EC4D}"/>
+    <hyperlink ref="C6" r:id="rId2" display="https://github.com/KamData/images/blob/master/sportsCategories/camping.png?raw=true" xr:uid="{39766DA8-AFF1-4BC1-8F71-EE864B6F62A7}"/>
+    <hyperlink ref="C5" r:id="rId3" display="https://github.com/KamData/images/blob/master/sportsCategories/golf.png?raw=true" xr:uid="{4430581D-6D82-43D5-8A22-173D1437D6BB}"/>
+    <hyperlink ref="C4" r:id="rId4" display="https://github.com/KamData/images/blob/master/sportsCategories/ski.png?raw=true" xr:uid="{AA9D2E9F-957F-4A18-BCA1-7E34A9DE8F80}"/>
+    <hyperlink ref="C2" r:id="rId5" display="https://github.com/KamData/images/blob/master/sportsCategories/vetements.png?raw=true" xr:uid="{98898E7A-3EFA-45D1-B15F-6A9F07945D60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
